--- a/meta/en/4-7-1.xlsx
+++ b/meta/en/4-7-1.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
